--- a/6Timetable/data/20220222/TIHP予約枠3月分.xlsx
+++ b/6Timetable/data/20220222/TIHP予約枠3月分.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="会場" sheetId="8" r:id="rId1"/>
@@ -63,6 +63,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>デフォルト毎時間枠の時間</t>
+  </si>
+  <si>
     <t>接種（予約）終了時間
 ※インポート時紐付け不要</t>
     <rPh sb="0" eb="2">
@@ -88,13 +91,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>デフォルト毎時間枠の時間</t>
+    <t>Webサイト</t>
   </si>
   <si>
     <t>昼休み開始</t>
-  </si>
-  <si>
-    <t>Webサイト</t>
   </si>
   <si>
     <t>会場: 電話</t>
@@ -112,12 +112,6 @@
       <t>ジュウショ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>巽今宮病院_3/1～3/30（モデルナ）</t>
-  </si>
-  <si>
-    <t>病院ID</t>
   </si>
   <si>
     <t>接種日
@@ -140,6 +134,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>病院ID</t>
+  </si>
+  <si>
+    <t>巽今宮病院_3/1～3/30（モデルナ）</t>
+  </si>
+  <si>
     <t>接種（予約）開始時間
 ※インポート時紐付け不要</t>
     <rPh sb="0" eb="2">
@@ -169,14 +169,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>有効</t>
-  </si>
-  <si>
     <t>外部ID</t>
     <rPh sb="0" eb="2">
       <t>ガイブ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有効</t>
   </si>
   <si>
     <r>
@@ -834,7 +834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
@@ -901,7 +901,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="H2" s="8">
-        <v>0.67361111111111116</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>TEXT(F2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
@@ -909,7 +909,7 @@
       </c>
       <c r="J2" s="9" t="str">
         <f>TEXT(F2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-03-01T16:10:00.000+9</v>
+        <v>2022-03-01T16:00:00.000+9</v>
       </c>
     </row>
   </sheetData>
@@ -923,13 +923,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
@@ -956,22 +957,22 @@
         <v>15</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>19</v>
@@ -992,7 +993,7 @@
         <v>26</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="16" t="s">
         <v>0</v>
@@ -1001,7 +1002,7 @@
         <v>5</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T1" s="22" t="s">
         <v>27</v>
@@ -1015,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="17" t="b">
         <v>1</v>
@@ -1027,14 +1028,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G2" s="18">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="I2" s="18">
-        <v>0.63194444444444398</v>
-      </c>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="19">
         <v>30</v>
       </c>
@@ -1042,7 +1039,7 @@
         <v>20</v>
       </c>
       <c r="L2" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" s="19">
         <v>120</v>
@@ -1063,15 +1060,15 @@
       </c>
       <c r="R2" s="21" t="str">
         <f t="shared" ref="R2:R15" si="2">TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-03-01T16:10:00.000+9</v>
+        <v>2022-03-01T16:00:00.000+9</v>
       </c>
       <c r="S2" s="21" t="str">
         <f t="shared" ref="S2:S15" si="3">TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-03-01T15:00:00.000+9</v>
+        <v>2022-03-01T00:00:00.000+9</v>
       </c>
       <c r="T2" s="23" t="str">
         <f t="shared" ref="T2:T15" si="4">TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(I2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-03-01T15:10:00.000+9</v>
+        <v>2022-03-01T00:00:00.000+9</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1">
@@ -1082,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="17" t="b">
         <v>1</v>
@@ -1094,14 +1091,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G3" s="18">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="I3" s="18">
-        <v>0.63194444444444398</v>
-      </c>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="19">
         <v>30</v>
       </c>
@@ -1109,7 +1102,7 @@
         <v>20</v>
       </c>
       <c r="L3" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3" s="19">
         <v>120</v>
@@ -1130,15 +1123,15 @@
       </c>
       <c r="R3" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>2022-03-02T16:10:00.000+9</v>
+        <v>2022-03-02T16:00:00.000+9</v>
       </c>
       <c r="S3" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>2022-03-02T15:00:00.000+9</v>
+        <v>2022-03-02T00:00:00.000+9</v>
       </c>
       <c r="T3" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>2022-03-02T15:10:00.000+9</v>
+        <v>2022-03-02T00:00:00.000+9</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="14.25">
@@ -1149,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="17" t="b">
         <v>1</v>
@@ -1161,14 +1154,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G4" s="18">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="I4" s="18">
-        <v>0.63194444444444398</v>
-      </c>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="19">
         <v>30</v>
       </c>
@@ -1176,7 +1165,7 @@
         <v>20</v>
       </c>
       <c r="L4" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="19">
         <v>120</v>
@@ -1197,15 +1186,15 @@
       </c>
       <c r="R4" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>2022-03-04T16:10:00.000+9</v>
+        <v>2022-03-04T16:00:00.000+9</v>
       </c>
       <c r="S4" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>2022-03-04T15:00:00.000+9</v>
+        <v>2022-03-04T00:00:00.000+9</v>
       </c>
       <c r="T4" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>2022-03-04T15:10:00.000+9</v>
+        <v>2022-03-04T00:00:00.000+9</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1">
@@ -1216,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="17" t="b">
         <v>1</v>
@@ -1228,14 +1217,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G5" s="18">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="I5" s="18">
-        <v>0.63194444444444398</v>
-      </c>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="19">
         <v>30</v>
       </c>
@@ -1243,7 +1228,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="19">
         <v>120</v>
@@ -1264,15 +1249,15 @@
       </c>
       <c r="R5" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>2022-03-08T16:10:00.000+9</v>
+        <v>2022-03-08T16:00:00.000+9</v>
       </c>
       <c r="S5" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>2022-03-08T15:00:00.000+9</v>
+        <v>2022-03-08T00:00:00.000+9</v>
       </c>
       <c r="T5" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>2022-03-08T15:10:00.000+9</v>
+        <v>2022-03-08T00:00:00.000+9</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1">
@@ -1283,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="17" t="b">
         <v>1</v>
@@ -1295,14 +1280,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G6" s="18">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="I6" s="18">
-        <v>0.63194444444444398</v>
-      </c>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="19">
         <v>30</v>
       </c>
@@ -1310,7 +1291,7 @@
         <v>20</v>
       </c>
       <c r="L6" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="19">
         <v>120</v>
@@ -1331,15 +1312,15 @@
       </c>
       <c r="R6" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>2022-03-09T16:10:00.000+9</v>
+        <v>2022-03-09T16:00:00.000+9</v>
       </c>
       <c r="S6" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>2022-03-09T15:00:00.000+9</v>
+        <v>2022-03-09T00:00:00.000+9</v>
       </c>
       <c r="T6" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>2022-03-09T15:10:00.000+9</v>
+        <v>2022-03-09T00:00:00.000+9</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="1" customFormat="1" ht="14.25">
@@ -1350,7 +1331,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="17" t="b">
         <v>1</v>
@@ -1362,14 +1343,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G7" s="18">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0.63194444444444398</v>
-      </c>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="19">
         <v>30</v>
       </c>
@@ -1377,7 +1354,7 @@
         <v>20</v>
       </c>
       <c r="L7" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" s="19">
         <v>120</v>
@@ -1398,15 +1375,15 @@
       </c>
       <c r="R7" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>2022-03-11T16:10:00.000+9</v>
+        <v>2022-03-11T16:00:00.000+9</v>
       </c>
       <c r="S7" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>2022-03-11T15:00:00.000+9</v>
+        <v>2022-03-11T00:00:00.000+9</v>
       </c>
       <c r="T7" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>2022-03-11T15:10:00.000+9</v>
+        <v>2022-03-11T00:00:00.000+9</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="1" customFormat="1">
@@ -1417,7 +1394,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="17" t="b">
         <v>1</v>
@@ -1429,14 +1406,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G8" s="18">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="I8" s="18">
-        <v>0.63194444444444398</v>
-      </c>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="19">
         <v>30</v>
       </c>
@@ -1444,7 +1417,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" s="19">
         <v>120</v>
@@ -1465,15 +1438,15 @@
       </c>
       <c r="R8" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>2022-03-15T16:10:00.000+9</v>
+        <v>2022-03-15T16:00:00.000+9</v>
       </c>
       <c r="S8" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>2022-03-15T15:00:00.000+9</v>
+        <v>2022-03-15T00:00:00.000+9</v>
       </c>
       <c r="T8" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>2022-03-15T15:10:00.000+9</v>
+        <v>2022-03-15T00:00:00.000+9</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1">
@@ -1484,7 +1457,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="17" t="b">
         <v>1</v>
@@ -1496,14 +1469,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G9" s="18">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="I9" s="18">
-        <v>0.63194444444444398</v>
-      </c>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="19">
         <v>30</v>
       </c>
@@ -1511,7 +1480,7 @@
         <v>20</v>
       </c>
       <c r="L9" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" s="19">
         <v>120</v>
@@ -1532,15 +1501,15 @@
       </c>
       <c r="R9" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>2022-03-16T16:10:00.000+9</v>
+        <v>2022-03-16T16:00:00.000+9</v>
       </c>
       <c r="S9" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>2022-03-16T15:00:00.000+9</v>
+        <v>2022-03-16T00:00:00.000+9</v>
       </c>
       <c r="T9" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>2022-03-16T15:10:00.000+9</v>
+        <v>2022-03-16T00:00:00.000+9</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="1" customFormat="1" ht="14.25">
@@ -1551,7 +1520,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="17" t="b">
         <v>1</v>
@@ -1563,14 +1532,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G10" s="18">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="I10" s="18">
-        <v>0.63194444444444398</v>
-      </c>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="19">
         <v>30</v>
       </c>
@@ -1578,7 +1543,7 @@
         <v>20</v>
       </c>
       <c r="L10" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" s="19">
         <v>120</v>
@@ -1599,15 +1564,15 @@
       </c>
       <c r="R10" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>2022-03-18T16:10:00.000+9</v>
+        <v>2022-03-18T16:00:00.000+9</v>
       </c>
       <c r="S10" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>2022-03-18T15:00:00.000+9</v>
+        <v>2022-03-18T00:00:00.000+9</v>
       </c>
       <c r="T10" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>2022-03-18T15:10:00.000+9</v>
+        <v>2022-03-18T00:00:00.000+9</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1">
@@ -1618,7 +1583,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="17" t="b">
         <v>1</v>
@@ -1630,14 +1595,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G11" s="18">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="H11" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="I11" s="18">
-        <v>0.63194444444444398</v>
-      </c>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="19">
         <v>30</v>
       </c>
@@ -1645,7 +1606,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="19">
         <v>120</v>
@@ -1666,15 +1627,15 @@
       </c>
       <c r="R11" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>2022-03-22T16:10:00.000+9</v>
+        <v>2022-03-22T16:00:00.000+9</v>
       </c>
       <c r="S11" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>2022-03-22T15:00:00.000+9</v>
+        <v>2022-03-22T00:00:00.000+9</v>
       </c>
       <c r="T11" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>2022-03-22T15:10:00.000+9</v>
+        <v>2022-03-22T00:00:00.000+9</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1">
@@ -1685,7 +1646,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="17" t="b">
         <v>1</v>
@@ -1697,14 +1658,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G12" s="18">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="H12" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="I12" s="18">
-        <v>0.63194444444444398</v>
-      </c>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="19">
         <v>30</v>
       </c>
@@ -1712,7 +1669,7 @@
         <v>20</v>
       </c>
       <c r="L12" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" s="19">
         <v>120</v>
@@ -1733,15 +1690,15 @@
       </c>
       <c r="R12" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>2022-03-23T16:10:00.000+9</v>
+        <v>2022-03-23T16:00:00.000+9</v>
       </c>
       <c r="S12" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>2022-03-23T15:00:00.000+9</v>
+        <v>2022-03-23T00:00:00.000+9</v>
       </c>
       <c r="T12" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>2022-03-23T15:10:00.000+9</v>
+        <v>2022-03-23T00:00:00.000+9</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" ht="14.25">
@@ -1752,7 +1709,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" s="17" t="b">
         <v>1</v>
@@ -1764,14 +1721,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G13" s="18">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="H13" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="I13" s="18">
-        <v>0.63194444444444398</v>
-      </c>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="19">
         <v>30</v>
       </c>
@@ -1779,7 +1732,7 @@
         <v>20</v>
       </c>
       <c r="L13" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" s="19">
         <v>120</v>
@@ -1800,15 +1753,15 @@
       </c>
       <c r="R13" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>2022-03-25T16:10:00.000+9</v>
+        <v>2022-03-25T16:00:00.000+9</v>
       </c>
       <c r="S13" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>2022-03-25T15:00:00.000+9</v>
+        <v>2022-03-25T00:00:00.000+9</v>
       </c>
       <c r="T13" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>2022-03-25T15:10:00.000+9</v>
+        <v>2022-03-25T00:00:00.000+9</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="1" customFormat="1">
@@ -1819,7 +1772,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" s="17" t="b">
         <v>1</v>
@@ -1831,14 +1784,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G14" s="18">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0.63194444444444398</v>
-      </c>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="19">
         <v>30</v>
       </c>
@@ -1846,7 +1795,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="19">
         <v>120</v>
@@ -1867,15 +1816,15 @@
       </c>
       <c r="R14" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>2022-03-29T16:10:00.000+9</v>
+        <v>2022-03-29T16:00:00.000+9</v>
       </c>
       <c r="S14" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>2022-03-29T15:00:00.000+9</v>
+        <v>2022-03-29T00:00:00.000+9</v>
       </c>
       <c r="T14" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>2022-03-29T15:10:00.000+9</v>
+        <v>2022-03-29T00:00:00.000+9</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="1" customFormat="1" ht="14.25">
@@ -1886,7 +1835,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="17" t="b">
         <v>1</v>
@@ -1898,14 +1847,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G15" s="18">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="I15" s="18">
-        <v>0.63194444444444398</v>
-      </c>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="19">
         <v>30</v>
       </c>
@@ -1913,7 +1858,7 @@
         <v>20</v>
       </c>
       <c r="L15" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" s="19">
         <v>120</v>
@@ -1934,15 +1879,15 @@
       </c>
       <c r="R15" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>2022-03-30T16:10:00.000+9</v>
+        <v>2022-03-30T16:00:00.000+9</v>
       </c>
       <c r="S15" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>2022-03-30T15:00:00.000+9</v>
+        <v>2022-03-30T00:00:00.000+9</v>
       </c>
       <c r="T15" s="23" t="str">
         <f t="shared" si="4"/>
-        <v>2022-03-30T15:10:00.000+9</v>
+        <v>2022-03-30T00:00:00.000+9</v>
       </c>
     </row>
   </sheetData>
@@ -1957,11 +1902,12 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -1984,22 +1930,22 @@
         <v>15</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>19</v>
@@ -2020,7 +1966,7 @@
         <v>26</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>0</v>
@@ -2029,7 +1975,7 @@
         <v>5</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>27</v>
@@ -2037,19 +1983,19 @@
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="6">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="F2" s="8">
         <v>0.625</v>
@@ -2076,30 +2022,30 @@
         <v>120</v>
       </c>
       <c r="N2" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O2" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P2" s="24" t="str">
         <f>C2&amp;"/"&amp;TEXT(E2,"yyyy-mm-dd")</f>
-        <v>巽今宮病院_3/1～3/30（モデルナ）/2022-02-22</v>
+        <v>巽今宮病院_3/1～3/30（モデルナ）/2022-02-23</v>
       </c>
       <c r="Q2" s="9" t="str">
         <f>TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-02-22T15:00:00.000+9</v>
+        <v>2022-02-23T15:00:00.000+9</v>
       </c>
       <c r="R2" s="9" t="str">
         <f>TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-02-22T15:30:00.000+9</v>
+        <v>2022-02-23T15:30:00.000+9</v>
       </c>
       <c r="S2" s="9" t="str">
         <f>TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-02-22T15:00:00.000+9</v>
+        <v>2022-02-23T15:00:00.000+9</v>
       </c>
       <c r="T2" s="9" t="str">
         <f>TEXT(E2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(I2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2022-02-22T15:30:00.000+9</v>
+        <v>2022-02-23T15:30:00.000+9</v>
       </c>
     </row>
   </sheetData>
